--- a/data/trans_camb/POLIPATOLOGIA_Lim_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,68 +531,50 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37,03</t>
+          <t>-6,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,26</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,71</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>51,31</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>48,86</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>58,56</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>45,29</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>40,84</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>49,7</t>
+          <t>4,41</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,03; 40,42</t>
+          <t>-11,52; -2,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,89; 33,25</t>
+          <t>-5,4; 4,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,76; 40,56</t>
+          <t>-6,98; 1,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>48,62; 54,02</t>
+          <t>3,39; 11,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,48; 52,09</t>
+          <t>-7,66; -1,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>55,87; 61,27</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>43,12; 47,36</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>38,46; 43,21</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>47,45; 52,23</t>
+          <t>1,31; 7,56</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-18,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-0,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-9,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>9,74%</t>
         </is>
       </c>
     </row>
@@ -791,47 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,61; -6,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,03; 13,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,11; 3,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,37; 23,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,32; -2,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>2,76; 17,25</t>
         </is>
       </c>
     </row>
@@ -848,47 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,15</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,11</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,58</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,66</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>13,19</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>14,7</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>18,36</t>
+          <t>5,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,34; 11,1</t>
+          <t>-0,59; 3,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 12,52</t>
+          <t>0,09; 6,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,05; 16,57</t>
+          <t>-1,14; 3,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,43; 19,34</t>
+          <t>-0,83; 9,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 20,46</t>
+          <t>-0,14; 3,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,54; 25,83</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>12,06; 14,39</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>13,45; 15,93</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>14,6; 20,46</t>
+          <t>1,05; 7,65</t>
         </is>
       </c>
     </row>
@@ -954,47 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>46,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>39,16%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,53; 38,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,77; 77,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,13; 25,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,18; 56,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 25,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>8,17; 59,69</t>
         </is>
       </c>
     </row>
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,59</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>11,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,4</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,39</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,52</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>9,67</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>17,54</t>
+          <t>9,02</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,02</t>
+          <t>-1,55; 6,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,8</t>
+          <t>2,57; 9,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,01; 15,28</t>
+          <t>-4,47; 3,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 14,43</t>
+          <t>6,93; 15,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,98; 13,2</t>
+          <t>-1,85; 3,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,63; 25,1</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 10,63</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>7,99; 11,83</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>15,75; 19,79</t>
+          <t>6,2; 11,79</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>39,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-2,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>108,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>105,92%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,47; 122,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,4; 203,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,22; 44,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,43; 188,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,47; 54,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>59,69; 172,3</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,02</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,96</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,22</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,16</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>25,83</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,04</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>23,21</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>20,52</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>23,81</t>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,66; 18,5</t>
+          <t>-3,9; -0,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,77; 16,24</t>
+          <t>-3,76; 2,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,57; 19,04</t>
+          <t>-5,48; -1,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,69; 30,8</t>
+          <t>-5,39; 3,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,33; 27,46</t>
+          <t>-4,2; -1,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,96; 32,5</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>22,23; 24,23</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>19,6; 21,56</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>20,23; 25,58</t>
+          <t>-2,64; 2,59</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>2,61%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,52; -1,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,77; 14,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,05; -3,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,25; 13,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,41; -5,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-11,21; 11,22</t>
         </is>
       </c>
     </row>
@@ -1493,11 +1222,11 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
